--- a/datasets/cafo2.xlsx
+++ b/datasets/cafo2.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica Lee K\Desktop\ISU Stat\Summer 2019\CC\Research\CAFO\CAFO_Shiny2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fonsecam\Documents\CAFO-2019-2020\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11064"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11060"/>
   </bookViews>
   <sheets>
     <sheet name="Treatment-Outcome data" sheetId="2" r:id="rId1"/>
@@ -2633,7 +2633,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2986,24 +2986,24 @@
   <dimension ref="A1:AJ552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A540" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A552" sqref="A550:XFD552"/>
+      <pane ySplit="1" topLeftCell="A537" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C547" sqref="C547"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.20703125" customWidth="1"/>
-    <col min="3" max="3" width="52" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1015625" hidden="1" customWidth="1"/>
-    <col min="5" max="7" width="14.7890625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" customWidth="1"/>
+    <col min="5" max="7" width="14.81640625" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
-    <col min="12" max="12" width="13.47265625" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
     <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="67.41796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="115.15625" customWidth="1"/>
+    <col min="15" max="15" width="67.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="115.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3783,7 +3783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -6301,7 +6301,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>47</v>
       </c>
@@ -6794,7 +6794,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>47</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -6918,7 +6918,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>141</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>141</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>141</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>141</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>141</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>141</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>141</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>141</v>
       </c>
@@ -7848,7 +7848,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>141</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>141</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>141</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>141</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>141</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>178</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>178</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>178</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>178</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>178</v>
       </c>
@@ -8453,7 +8453,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>199</v>
       </c>
@@ -8531,7 +8531,7 @@
       <c r="AI89" s="2"/>
       <c r="AJ89" s="2"/>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>199</v>
       </c>
@@ -8609,7 +8609,7 @@
       <c r="AI90" s="2"/>
       <c r="AJ90" s="2"/>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>199</v>
       </c>
@@ -8687,7 +8687,7 @@
       <c r="AI91" s="2"/>
       <c r="AJ91" s="2"/>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>199</v>
       </c>
@@ -8765,7 +8765,7 @@
       <c r="AI92" s="2"/>
       <c r="AJ92" s="2"/>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>199</v>
       </c>
@@ -8843,7 +8843,7 @@
       <c r="AI93" s="2"/>
       <c r="AJ93" s="2"/>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>199</v>
       </c>
@@ -8921,7 +8921,7 @@
       <c r="AI94" s="2"/>
       <c r="AJ94" s="2"/>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>199</v>
       </c>
@@ -8999,7 +8999,7 @@
       <c r="AI95" s="2"/>
       <c r="AJ95" s="2"/>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>199</v>
       </c>
@@ -9077,7 +9077,7 @@
       <c r="AI96" s="2"/>
       <c r="AJ96" s="2"/>
     </row>
-    <row r="97" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>199</v>
       </c>
@@ -9155,7 +9155,7 @@
       <c r="AI97" s="2"/>
       <c r="AJ97" s="2"/>
     </row>
-    <row r="98" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>199</v>
       </c>
@@ -9233,7 +9233,7 @@
       <c r="AI98" s="2"/>
       <c r="AJ98" s="2"/>
     </row>
-    <row r="99" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>199</v>
       </c>
@@ -9311,7 +9311,7 @@
       <c r="AI99" s="2"/>
       <c r="AJ99" s="2"/>
     </row>
-    <row r="100" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>199</v>
       </c>
@@ -9389,7 +9389,7 @@
       <c r="AI100" s="2"/>
       <c r="AJ100" s="2"/>
     </row>
-    <row r="101" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>199</v>
       </c>
@@ -9467,7 +9467,7 @@
       <c r="AI101" s="2"/>
       <c r="AJ101" s="2"/>
     </row>
-    <row r="102" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>199</v>
       </c>
@@ -9545,7 +9545,7 @@
       <c r="AI102" s="2"/>
       <c r="AJ102" s="2"/>
     </row>
-    <row r="103" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>199</v>
       </c>
@@ -9623,7 +9623,7 @@
       <c r="AI103" s="2"/>
       <c r="AJ103" s="2"/>
     </row>
-    <row r="104" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>199</v>
       </c>
@@ -9701,7 +9701,7 @@
       <c r="AI104" s="2"/>
       <c r="AJ104" s="2"/>
     </row>
-    <row r="105" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>199</v>
       </c>
@@ -9779,7 +9779,7 @@
       <c r="AI105" s="2"/>
       <c r="AJ105" s="2"/>
     </row>
-    <row r="106" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>199</v>
       </c>
@@ -9857,7 +9857,7 @@
       <c r="AI106" s="2"/>
       <c r="AJ106" s="2"/>
     </row>
-    <row r="107" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>199</v>
       </c>
@@ -9935,7 +9935,7 @@
       <c r="AI107" s="2"/>
       <c r="AJ107" s="2"/>
     </row>
-    <row r="108" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>199</v>
       </c>
@@ -10013,7 +10013,7 @@
       <c r="AI108" s="2"/>
       <c r="AJ108" s="2"/>
     </row>
-    <row r="109" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>199</v>
       </c>
@@ -10091,7 +10091,7 @@
       <c r="AI109" s="2"/>
       <c r="AJ109" s="2"/>
     </row>
-    <row r="110" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>199</v>
       </c>
@@ -10169,7 +10169,7 @@
       <c r="AI110" s="2"/>
       <c r="AJ110" s="2"/>
     </row>
-    <row r="111" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>199</v>
       </c>
@@ -10247,7 +10247,7 @@
       <c r="AI111" s="2"/>
       <c r="AJ111" s="2"/>
     </row>
-    <row r="112" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>199</v>
       </c>
@@ -10325,7 +10325,7 @@
       <c r="AI112" s="2"/>
       <c r="AJ112" s="2"/>
     </row>
-    <row r="113" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>199</v>
       </c>
@@ -10403,7 +10403,7 @@
       <c r="AI113" s="2"/>
       <c r="AJ113" s="2"/>
     </row>
-    <row r="114" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>199</v>
       </c>
@@ -10481,7 +10481,7 @@
       <c r="AI114" s="2"/>
       <c r="AJ114" s="2"/>
     </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>199</v>
       </c>
@@ -10559,7 +10559,7 @@
       <c r="AI115" s="2"/>
       <c r="AJ115" s="2"/>
     </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>199</v>
       </c>
@@ -10637,7 +10637,7 @@
       <c r="AI116" s="2"/>
       <c r="AJ116" s="2"/>
     </row>
-    <row r="117" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>199</v>
       </c>
@@ -10715,7 +10715,7 @@
       <c r="AI117" s="2"/>
       <c r="AJ117" s="2"/>
     </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>199</v>
       </c>
@@ -10793,7 +10793,7 @@
       <c r="AI118" s="2"/>
       <c r="AJ118" s="2"/>
     </row>
-    <row r="119" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>199</v>
       </c>
@@ -10871,7 +10871,7 @@
       <c r="AI119" s="2"/>
       <c r="AJ119" s="2"/>
     </row>
-    <row r="120" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>199</v>
       </c>
@@ -10949,7 +10949,7 @@
       <c r="AI120" s="2"/>
       <c r="AJ120" s="2"/>
     </row>
-    <row r="121" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>199</v>
       </c>
@@ -11027,7 +11027,7 @@
       <c r="AI121" s="2"/>
       <c r="AJ121" s="2"/>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>199</v>
       </c>
@@ -11105,7 +11105,7 @@
       <c r="AI122" s="2"/>
       <c r="AJ122" s="2"/>
     </row>
-    <row r="123" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>199</v>
       </c>
@@ -11183,7 +11183,7 @@
       <c r="AI123" s="2"/>
       <c r="AJ123" s="2"/>
     </row>
-    <row r="124" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>199</v>
       </c>
@@ -11261,7 +11261,7 @@
       <c r="AI124" s="2"/>
       <c r="AJ124" s="2"/>
     </row>
-    <row r="125" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>199</v>
       </c>
@@ -11339,7 +11339,7 @@
       <c r="AI125" s="2"/>
       <c r="AJ125" s="2"/>
     </row>
-    <row r="126" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>199</v>
       </c>
@@ -11417,7 +11417,7 @@
       <c r="AI126" s="2"/>
       <c r="AJ126" s="2"/>
     </row>
-    <row r="127" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>199</v>
       </c>
@@ -11495,7 +11495,7 @@
       <c r="AI127" s="2"/>
       <c r="AJ127" s="2"/>
     </row>
-    <row r="128" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>199</v>
       </c>
@@ -11573,7 +11573,7 @@
       <c r="AI128" s="2"/>
       <c r="AJ128" s="2"/>
     </row>
-    <row r="129" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>199</v>
       </c>
@@ -11651,7 +11651,7 @@
       <c r="AI129" s="2"/>
       <c r="AJ129" s="2"/>
     </row>
-    <row r="130" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>199</v>
       </c>
@@ -11729,7 +11729,7 @@
       <c r="AI130" s="2"/>
       <c r="AJ130" s="2"/>
     </row>
-    <row r="131" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>199</v>
       </c>
@@ -11807,7 +11807,7 @@
       <c r="AI131" s="2"/>
       <c r="AJ131" s="2"/>
     </row>
-    <row r="132" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>199</v>
       </c>
@@ -11885,7 +11885,7 @@
       <c r="AI132" s="2"/>
       <c r="AJ132" s="2"/>
     </row>
-    <row r="133" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>199</v>
       </c>
@@ -11963,7 +11963,7 @@
       <c r="AI133" s="2"/>
       <c r="AJ133" s="2"/>
     </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>199</v>
       </c>
@@ -12041,7 +12041,7 @@
       <c r="AI134" s="2"/>
       <c r="AJ134" s="2"/>
     </row>
-    <row r="135" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>199</v>
       </c>
@@ -12119,7 +12119,7 @@
       <c r="AI135" s="2"/>
       <c r="AJ135" s="2"/>
     </row>
-    <row r="136" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>199</v>
       </c>
@@ -12197,7 +12197,7 @@
       <c r="AI136" s="2"/>
       <c r="AJ136" s="2"/>
     </row>
-    <row r="137" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>199</v>
       </c>
@@ -12275,7 +12275,7 @@
       <c r="AI137" s="2"/>
       <c r="AJ137" s="2"/>
     </row>
-    <row r="138" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>199</v>
       </c>
@@ -12353,7 +12353,7 @@
       <c r="AI138" s="2"/>
       <c r="AJ138" s="2"/>
     </row>
-    <row r="139" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>199</v>
       </c>
@@ -12431,7 +12431,7 @@
       <c r="AI139" s="2"/>
       <c r="AJ139" s="2"/>
     </row>
-    <row r="140" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>199</v>
       </c>
@@ -12509,7 +12509,7 @@
       <c r="AI140" s="2"/>
       <c r="AJ140" s="2"/>
     </row>
-    <row r="141" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>199</v>
       </c>
@@ -12587,7 +12587,7 @@
       <c r="AI141" s="2"/>
       <c r="AJ141" s="2"/>
     </row>
-    <row r="142" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>199</v>
       </c>
@@ -12665,7 +12665,7 @@
       <c r="AI142" s="2"/>
       <c r="AJ142" s="2"/>
     </row>
-    <row r="143" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>199</v>
       </c>
@@ -12743,7 +12743,7 @@
       <c r="AI143" s="2"/>
       <c r="AJ143" s="2"/>
     </row>
-    <row r="144" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>199</v>
       </c>
@@ -12821,7 +12821,7 @@
       <c r="AI144" s="2"/>
       <c r="AJ144" s="2"/>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>199</v>
       </c>
@@ -12899,7 +12899,7 @@
       <c r="AI145" s="2"/>
       <c r="AJ145" s="2"/>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>199</v>
       </c>
@@ -12977,7 +12977,7 @@
       <c r="AI146" s="2"/>
       <c r="AJ146" s="2"/>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>199</v>
       </c>
@@ -13055,7 +13055,7 @@
       <c r="AI147" s="2"/>
       <c r="AJ147" s="2"/>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>199</v>
       </c>
@@ -13133,7 +13133,7 @@
       <c r="AI148" s="2"/>
       <c r="AJ148" s="2"/>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>199</v>
       </c>
@@ -13211,7 +13211,7 @@
       <c r="AI149" s="2"/>
       <c r="AJ149" s="2"/>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>199</v>
       </c>
@@ -13289,7 +13289,7 @@
       <c r="AI150" s="2"/>
       <c r="AJ150" s="2"/>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>199</v>
       </c>
@@ -13367,7 +13367,7 @@
       <c r="AI151" s="2"/>
       <c r="AJ151" s="2"/>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>199</v>
       </c>
@@ -13445,7 +13445,7 @@
       <c r="AI152" s="2"/>
       <c r="AJ152" s="2"/>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>199</v>
       </c>
@@ -13523,7 +13523,7 @@
       <c r="AI153" s="2"/>
       <c r="AJ153" s="2"/>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>199</v>
       </c>
@@ -13601,7 +13601,7 @@
       <c r="AI154" s="2"/>
       <c r="AJ154" s="2"/>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>199</v>
       </c>
@@ -13679,7 +13679,7 @@
       <c r="AI155" s="2"/>
       <c r="AJ155" s="2"/>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>199</v>
       </c>
@@ -13757,7 +13757,7 @@
       <c r="AI156" s="2"/>
       <c r="AJ156" s="2"/>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>199</v>
       </c>
@@ -13835,7 +13835,7 @@
       <c r="AI157" s="2"/>
       <c r="AJ157" s="2"/>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>199</v>
       </c>
@@ -13913,7 +13913,7 @@
       <c r="AI158" s="2"/>
       <c r="AJ158" s="2"/>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>199</v>
       </c>
@@ -13991,7 +13991,7 @@
       <c r="AI159" s="2"/>
       <c r="AJ159" s="2"/>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>199</v>
       </c>
@@ -14069,7 +14069,7 @@
       <c r="AI160" s="2"/>
       <c r="AJ160" s="2"/>
     </row>
-    <row r="161" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>199</v>
       </c>
@@ -14147,7 +14147,7 @@
       <c r="AI161" s="2"/>
       <c r="AJ161" s="2"/>
     </row>
-    <row r="162" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>199</v>
       </c>
@@ -14225,7 +14225,7 @@
       <c r="AI162" s="2"/>
       <c r="AJ162" s="2"/>
     </row>
-    <row r="163" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>199</v>
       </c>
@@ -14303,7 +14303,7 @@
       <c r="AI163" s="2"/>
       <c r="AJ163" s="2"/>
     </row>
-    <row r="164" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>199</v>
       </c>
@@ -14381,7 +14381,7 @@
       <c r="AI164" s="2"/>
       <c r="AJ164" s="2"/>
     </row>
-    <row r="165" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>199</v>
       </c>
@@ -14459,7 +14459,7 @@
       <c r="AI165" s="2"/>
       <c r="AJ165" s="2"/>
     </row>
-    <row r="166" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>199</v>
       </c>
@@ -14537,7 +14537,7 @@
       <c r="AI166" s="2"/>
       <c r="AJ166" s="2"/>
     </row>
-    <row r="167" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>199</v>
       </c>
@@ -14615,7 +14615,7 @@
       <c r="AI167" s="2"/>
       <c r="AJ167" s="2"/>
     </row>
-    <row r="168" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>199</v>
       </c>
@@ -14693,7 +14693,7 @@
       <c r="AI168" s="2"/>
       <c r="AJ168" s="2"/>
     </row>
-    <row r="169" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>199</v>
       </c>
@@ -14771,7 +14771,7 @@
       <c r="AI169" s="2"/>
       <c r="AJ169" s="2"/>
     </row>
-    <row r="170" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>199</v>
       </c>
@@ -14849,7 +14849,7 @@
       <c r="AI170" s="2"/>
       <c r="AJ170" s="2"/>
     </row>
-    <row r="171" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>199</v>
       </c>
@@ -14927,7 +14927,7 @@
       <c r="AI171" s="2"/>
       <c r="AJ171" s="2"/>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>199</v>
       </c>
@@ -15005,7 +15005,7 @@
       <c r="AI172" s="2"/>
       <c r="AJ172" s="2"/>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>199</v>
       </c>
@@ -15083,7 +15083,7 @@
       <c r="AI173" s="2"/>
       <c r="AJ173" s="2"/>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>199</v>
       </c>
@@ -15161,7 +15161,7 @@
       <c r="AI174" s="2"/>
       <c r="AJ174" s="2"/>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>199</v>
       </c>
@@ -15239,7 +15239,7 @@
       <c r="AI175" s="2"/>
       <c r="AJ175" s="2"/>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>199</v>
       </c>
@@ -15317,7 +15317,7 @@
       <c r="AI176" s="2"/>
       <c r="AJ176" s="2"/>
     </row>
-    <row r="177" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>199</v>
       </c>
@@ -15395,7 +15395,7 @@
       <c r="AI177" s="2"/>
       <c r="AJ177" s="2"/>
     </row>
-    <row r="178" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>199</v>
       </c>
@@ -15473,7 +15473,7 @@
       <c r="AI178" s="2"/>
       <c r="AJ178" s="2"/>
     </row>
-    <row r="179" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>199</v>
       </c>
@@ -15551,7 +15551,7 @@
       <c r="AI179" s="2"/>
       <c r="AJ179" s="2"/>
     </row>
-    <row r="180" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>199</v>
       </c>
@@ -15629,7 +15629,7 @@
       <c r="AI180" s="2"/>
       <c r="AJ180" s="2"/>
     </row>
-    <row r="181" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>199</v>
       </c>
@@ -15707,7 +15707,7 @@
       <c r="AI181" s="2"/>
       <c r="AJ181" s="2"/>
     </row>
-    <row r="182" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>199</v>
       </c>
@@ -15785,7 +15785,7 @@
       <c r="AI182" s="2"/>
       <c r="AJ182" s="2"/>
     </row>
-    <row r="183" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>199</v>
       </c>
@@ -15863,7 +15863,7 @@
       <c r="AI183" s="2"/>
       <c r="AJ183" s="2"/>
     </row>
-    <row r="184" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>199</v>
       </c>
@@ -15941,7 +15941,7 @@
       <c r="AI184" s="2"/>
       <c r="AJ184" s="2"/>
     </row>
-    <row r="185" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>199</v>
       </c>
@@ -16019,7 +16019,7 @@
       <c r="AI185" s="2"/>
       <c r="AJ185" s="2"/>
     </row>
-    <row r="186" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>199</v>
       </c>
@@ -16097,7 +16097,7 @@
       <c r="AI186" s="2"/>
       <c r="AJ186" s="2"/>
     </row>
-    <row r="187" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>199</v>
       </c>
@@ -16175,7 +16175,7 @@
       <c r="AI187" s="2"/>
       <c r="AJ187" s="2"/>
     </row>
-    <row r="188" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>199</v>
       </c>
@@ -16253,7 +16253,7 @@
       <c r="AI188" s="2"/>
       <c r="AJ188" s="2"/>
     </row>
-    <row r="189" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>199</v>
       </c>
@@ -16331,7 +16331,7 @@
       <c r="AI189" s="2"/>
       <c r="AJ189" s="2"/>
     </row>
-    <row r="190" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>199</v>
       </c>
@@ -16409,7 +16409,7 @@
       <c r="AI190" s="2"/>
       <c r="AJ190" s="2"/>
     </row>
-    <row r="191" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>199</v>
       </c>
@@ -16487,7 +16487,7 @@
       <c r="AI191" s="2"/>
       <c r="AJ191" s="2"/>
     </row>
-    <row r="192" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>199</v>
       </c>
@@ -16565,7 +16565,7 @@
       <c r="AI192" s="2"/>
       <c r="AJ192" s="2"/>
     </row>
-    <row r="193" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>199</v>
       </c>
@@ -16643,7 +16643,7 @@
       <c r="AI193" s="2"/>
       <c r="AJ193" s="2"/>
     </row>
-    <row r="194" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>199</v>
       </c>
@@ -16721,7 +16721,7 @@
       <c r="AI194" s="2"/>
       <c r="AJ194" s="2"/>
     </row>
-    <row r="195" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>199</v>
       </c>
@@ -16799,7 +16799,7 @@
       <c r="AI195" s="2"/>
       <c r="AJ195" s="2"/>
     </row>
-    <row r="196" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>199</v>
       </c>
@@ -16877,7 +16877,7 @@
       <c r="AI196" s="2"/>
       <c r="AJ196" s="2"/>
     </row>
-    <row r="197" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>199</v>
       </c>
@@ -16955,7 +16955,7 @@
       <c r="AI197" s="2"/>
       <c r="AJ197" s="2"/>
     </row>
-    <row r="198" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>199</v>
       </c>
@@ -17033,7 +17033,7 @@
       <c r="AI198" s="2"/>
       <c r="AJ198" s="2"/>
     </row>
-    <row r="199" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>199</v>
       </c>
@@ -17111,7 +17111,7 @@
       <c r="AI199" s="2"/>
       <c r="AJ199" s="2"/>
     </row>
-    <row r="200" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -17189,7 +17189,7 @@
       <c r="AI200" s="2"/>
       <c r="AJ200" s="2"/>
     </row>
-    <row r="201" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>199</v>
       </c>
@@ -17267,7 +17267,7 @@
       <c r="AI201" s="2"/>
       <c r="AJ201" s="2"/>
     </row>
-    <row r="202" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>199</v>
       </c>
@@ -17345,7 +17345,7 @@
       <c r="AI202" s="2"/>
       <c r="AJ202" s="2"/>
     </row>
-    <row r="203" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>199</v>
       </c>
@@ -17423,7 +17423,7 @@
       <c r="AI203" s="2"/>
       <c r="AJ203" s="2"/>
     </row>
-    <row r="204" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>199</v>
       </c>
@@ -17501,7 +17501,7 @@
       <c r="AI204" s="2"/>
       <c r="AJ204" s="2"/>
     </row>
-    <row r="205" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>199</v>
       </c>
@@ -17579,7 +17579,7 @@
       <c r="AI205" s="2"/>
       <c r="AJ205" s="2"/>
     </row>
-    <row r="206" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>199</v>
       </c>
@@ -17657,7 +17657,7 @@
       <c r="AI206" s="2"/>
       <c r="AJ206" s="2"/>
     </row>
-    <row r="207" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>199</v>
       </c>
@@ -17735,7 +17735,7 @@
       <c r="AI207" s="2"/>
       <c r="AJ207" s="2"/>
     </row>
-    <row r="208" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>199</v>
       </c>
@@ -17813,7 +17813,7 @@
       <c r="AI208" s="2"/>
       <c r="AJ208" s="2"/>
     </row>
-    <row r="209" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>199</v>
       </c>
@@ -17891,7 +17891,7 @@
       <c r="AI209" s="2"/>
       <c r="AJ209" s="2"/>
     </row>
-    <row r="210" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>199</v>
       </c>
@@ -17969,7 +17969,7 @@
       <c r="AI210" s="2"/>
       <c r="AJ210" s="2"/>
     </row>
-    <row r="211" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>199</v>
       </c>
@@ -18047,7 +18047,7 @@
       <c r="AI211" s="2"/>
       <c r="AJ211" s="2"/>
     </row>
-    <row r="212" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>199</v>
       </c>
@@ -18125,7 +18125,7 @@
       <c r="AI212" s="2"/>
       <c r="AJ212" s="2"/>
     </row>
-    <row r="213" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>199</v>
       </c>
@@ -18203,7 +18203,7 @@
       <c r="AI213" s="2"/>
       <c r="AJ213" s="2"/>
     </row>
-    <row r="214" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>199</v>
       </c>
@@ -18281,7 +18281,7 @@
       <c r="AI214" s="2"/>
       <c r="AJ214" s="2"/>
     </row>
-    <row r="215" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>199</v>
       </c>
@@ -18359,7 +18359,7 @@
       <c r="AI215" s="2"/>
       <c r="AJ215" s="2"/>
     </row>
-    <row r="216" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>199</v>
       </c>
@@ -18437,7 +18437,7 @@
       <c r="AI216" s="2"/>
       <c r="AJ216" s="2"/>
     </row>
-    <row r="217" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>199</v>
       </c>
@@ -18515,7 +18515,7 @@
       <c r="AI217" s="2"/>
       <c r="AJ217" s="2"/>
     </row>
-    <row r="218" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>199</v>
       </c>
@@ -18593,7 +18593,7 @@
       <c r="AI218" s="2"/>
       <c r="AJ218" s="2"/>
     </row>
-    <row r="219" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>199</v>
       </c>
@@ -18671,7 +18671,7 @@
       <c r="AI219" s="2"/>
       <c r="AJ219" s="2"/>
     </row>
-    <row r="220" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>199</v>
       </c>
@@ -18749,7 +18749,7 @@
       <c r="AI220" s="2"/>
       <c r="AJ220" s="2"/>
     </row>
-    <row r="221" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>199</v>
       </c>
@@ -18827,7 +18827,7 @@
       <c r="AI221" s="2"/>
       <c r="AJ221" s="2"/>
     </row>
-    <row r="222" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>199</v>
       </c>
@@ -18905,7 +18905,7 @@
       <c r="AI222" s="2"/>
       <c r="AJ222" s="2"/>
     </row>
-    <row r="223" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>199</v>
       </c>
@@ -18983,7 +18983,7 @@
       <c r="AI223" s="2"/>
       <c r="AJ223" s="2"/>
     </row>
-    <row r="224" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>199</v>
       </c>
@@ -19061,7 +19061,7 @@
       <c r="AI224" s="2"/>
       <c r="AJ224" s="2"/>
     </row>
-    <row r="225" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>199</v>
       </c>
@@ -19139,7 +19139,7 @@
       <c r="AI225" s="2"/>
       <c r="AJ225" s="2"/>
     </row>
-    <row r="226" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>199</v>
       </c>
@@ -19217,7 +19217,7 @@
       <c r="AI226" s="2"/>
       <c r="AJ226" s="2"/>
     </row>
-    <row r="227" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>199</v>
       </c>
@@ -19295,7 +19295,7 @@
       <c r="AI227" s="2"/>
       <c r="AJ227" s="2"/>
     </row>
-    <row r="228" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>199</v>
       </c>
@@ -19373,7 +19373,7 @@
       <c r="AI228" s="2"/>
       <c r="AJ228" s="2"/>
     </row>
-    <row r="229" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>199</v>
       </c>
@@ -19451,7 +19451,7 @@
       <c r="AI229" s="2"/>
       <c r="AJ229" s="2"/>
     </row>
-    <row r="230" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>199</v>
       </c>
@@ -19529,7 +19529,7 @@
       <c r="AI230" s="2"/>
       <c r="AJ230" s="2"/>
     </row>
-    <row r="231" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>199</v>
       </c>
@@ -19607,7 +19607,7 @@
       <c r="AI231" s="2"/>
       <c r="AJ231" s="2"/>
     </row>
-    <row r="232" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>199</v>
       </c>
@@ -19685,7 +19685,7 @@
       <c r="AI232" s="2"/>
       <c r="AJ232" s="2"/>
     </row>
-    <row r="233" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>199</v>
       </c>
@@ -19763,7 +19763,7 @@
       <c r="AI233" s="2"/>
       <c r="AJ233" s="2"/>
     </row>
-    <row r="234" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>199</v>
       </c>
@@ -19841,7 +19841,7 @@
       <c r="AI234" s="2"/>
       <c r="AJ234" s="2"/>
     </row>
-    <row r="235" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>199</v>
       </c>
@@ -19919,7 +19919,7 @@
       <c r="AI235" s="2"/>
       <c r="AJ235" s="2"/>
     </row>
-    <row r="236" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>199</v>
       </c>
@@ -19997,7 +19997,7 @@
       <c r="AI236" s="2"/>
       <c r="AJ236" s="2"/>
     </row>
-    <row r="237" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>199</v>
       </c>
@@ -20075,7 +20075,7 @@
       <c r="AI237" s="2"/>
       <c r="AJ237" s="2"/>
     </row>
-    <row r="238" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>199</v>
       </c>
@@ -20153,7 +20153,7 @@
       <c r="AI238" s="2"/>
       <c r="AJ238" s="2"/>
     </row>
-    <row r="239" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>199</v>
       </c>
@@ -20231,7 +20231,7 @@
       <c r="AI239" s="2"/>
       <c r="AJ239" s="2"/>
     </row>
-    <row r="240" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>199</v>
       </c>
@@ -20309,7 +20309,7 @@
       <c r="AI240" s="2"/>
       <c r="AJ240" s="2"/>
     </row>
-    <row r="241" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>199</v>
       </c>
@@ -20387,7 +20387,7 @@
       <c r="AI241" s="2"/>
       <c r="AJ241" s="2"/>
     </row>
-    <row r="242" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>199</v>
       </c>
@@ -20465,7 +20465,7 @@
       <c r="AI242" s="2"/>
       <c r="AJ242" s="2"/>
     </row>
-    <row r="243" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>199</v>
       </c>
@@ -20543,7 +20543,7 @@
       <c r="AI243" s="2"/>
       <c r="AJ243" s="2"/>
     </row>
-    <row r="244" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>199</v>
       </c>
@@ -20621,7 +20621,7 @@
       <c r="AI244" s="2"/>
       <c r="AJ244" s="2"/>
     </row>
-    <row r="245" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>199</v>
       </c>
@@ -20699,7 +20699,7 @@
       <c r="AI245" s="2"/>
       <c r="AJ245" s="2"/>
     </row>
-    <row r="246" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>199</v>
       </c>
@@ -20777,7 +20777,7 @@
       <c r="AI246" s="2"/>
       <c r="AJ246" s="2"/>
     </row>
-    <row r="247" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>199</v>
       </c>
@@ -20855,7 +20855,7 @@
       <c r="AI247" s="2"/>
       <c r="AJ247" s="2"/>
     </row>
-    <row r="248" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>199</v>
       </c>
@@ -20933,7 +20933,7 @@
       <c r="AI248" s="2"/>
       <c r="AJ248" s="2"/>
     </row>
-    <row r="249" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>199</v>
       </c>
@@ -21011,7 +21011,7 @@
       <c r="AI249" s="2"/>
       <c r="AJ249" s="2"/>
     </row>
-    <row r="250" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>199</v>
       </c>
@@ -21089,7 +21089,7 @@
       <c r="AI250" s="2"/>
       <c r="AJ250" s="2"/>
     </row>
-    <row r="251" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>199</v>
       </c>
@@ -21167,7 +21167,7 @@
       <c r="AI251" s="2"/>
       <c r="AJ251" s="2"/>
     </row>
-    <row r="252" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>199</v>
       </c>
@@ -21245,7 +21245,7 @@
       <c r="AI252" s="2"/>
       <c r="AJ252" s="2"/>
     </row>
-    <row r="253" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>199</v>
       </c>
@@ -21323,7 +21323,7 @@
       <c r="AI253" s="2"/>
       <c r="AJ253" s="2"/>
     </row>
-    <row r="254" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>199</v>
       </c>
@@ -21401,7 +21401,7 @@
       <c r="AI254" s="2"/>
       <c r="AJ254" s="2"/>
     </row>
-    <row r="255" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>199</v>
       </c>
@@ -21479,7 +21479,7 @@
       <c r="AI255" s="2"/>
       <c r="AJ255" s="2"/>
     </row>
-    <row r="256" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>397</v>
       </c>
@@ -21538,7 +21538,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>397</v>
       </c>
@@ -21597,7 +21597,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>397</v>
       </c>
@@ -21656,7 +21656,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>397</v>
       </c>
@@ -21715,7 +21715,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>397</v>
       </c>
@@ -21774,7 +21774,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>397</v>
       </c>
@@ -21833,7 +21833,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>397</v>
       </c>
@@ -21892,7 +21892,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>397</v>
       </c>
@@ -21951,7 +21951,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>397</v>
       </c>
@@ -22010,7 +22010,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>397</v>
       </c>
@@ -22069,7 +22069,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>397</v>
       </c>
@@ -22128,7 +22128,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>397</v>
       </c>
@@ -22187,7 +22187,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>397</v>
       </c>
@@ -22246,7 +22246,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>397</v>
       </c>
@@ -22305,7 +22305,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>397</v>
       </c>
@@ -22364,7 +22364,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>397</v>
       </c>
@@ -22423,7 +22423,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>397</v>
       </c>
@@ -22482,7 +22482,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>397</v>
       </c>
@@ -22541,7 +22541,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>397</v>
       </c>
@@ -22600,7 +22600,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>397</v>
       </c>
@@ -22659,7 +22659,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>418</v>
       </c>
@@ -22721,7 +22721,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>418</v>
       </c>
@@ -22783,7 +22783,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>418</v>
       </c>
@@ -22845,7 +22845,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>418</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>418</v>
       </c>
@@ -22969,7 +22969,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>418</v>
       </c>
@@ -23031,7 +23031,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>418</v>
       </c>
@@ -23093,7 +23093,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>418</v>
       </c>
@@ -23155,7 +23155,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>418</v>
       </c>
@@ -23217,7 +23217,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>418</v>
       </c>
@@ -23279,7 +23279,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>418</v>
       </c>
@@ -23341,7 +23341,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>418</v>
       </c>
@@ -23403,7 +23403,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>418</v>
       </c>
@@ -23465,7 +23465,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>418</v>
       </c>
@@ -23527,7 +23527,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>418</v>
       </c>
@@ -23589,7 +23589,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>418</v>
       </c>
@@ -23651,7 +23651,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>418</v>
       </c>
@@ -23713,7 +23713,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>418</v>
       </c>
@@ -23775,7 +23775,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>418</v>
       </c>
@@ -23837,7 +23837,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>418</v>
       </c>
@@ -23899,7 +23899,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>418</v>
       </c>
@@ -23961,7 +23961,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>418</v>
       </c>
@@ -24023,7 +24023,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>418</v>
       </c>
@@ -24085,7 +24085,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>418</v>
       </c>
@@ -24147,7 +24147,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>418</v>
       </c>
@@ -24209,7 +24209,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>418</v>
       </c>
@@ -24271,7 +24271,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>418</v>
       </c>
@@ -24333,7 +24333,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>418</v>
       </c>
@@ -24395,7 +24395,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>418</v>
       </c>
@@ -24457,7 +24457,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>418</v>
       </c>
@@ -24519,7 +24519,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>418</v>
       </c>
@@ -24581,7 +24581,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>418</v>
       </c>
@@ -24643,7 +24643,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>418</v>
       </c>
@@ -24705,7 +24705,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>418</v>
       </c>
@@ -24767,7 +24767,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>418</v>
       </c>
@@ -24829,7 +24829,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>418</v>
       </c>
@@ -24891,7 +24891,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>418</v>
       </c>
@@ -24953,7 +24953,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>418</v>
       </c>
@@ -25015,7 +25015,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>418</v>
       </c>
@@ -25077,7 +25077,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>418</v>
       </c>
@@ -25139,7 +25139,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>418</v>
       </c>
@@ -25201,7 +25201,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>418</v>
       </c>
@@ -25263,7 +25263,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>418</v>
       </c>
@@ -25325,7 +25325,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>418</v>
       </c>
@@ -25387,7 +25387,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>418</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>418</v>
       </c>
@@ -25511,7 +25511,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>418</v>
       </c>
@@ -25573,7 +25573,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>418</v>
       </c>
@@ -25635,7 +25635,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>483</v>
       </c>
@@ -25697,7 +25697,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>483</v>
       </c>
@@ -25759,7 +25759,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>483</v>
       </c>
@@ -25821,7 +25821,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>483</v>
       </c>
@@ -25883,7 +25883,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>483</v>
       </c>
@@ -25945,7 +25945,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>483</v>
       </c>
@@ -26007,7 +26007,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>483</v>
       </c>
@@ -26066,7 +26066,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>500</v>
       </c>
@@ -26131,7 +26131,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>500</v>
       </c>
@@ -26196,7 +26196,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>500</v>
       </c>
@@ -26261,7 +26261,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>500</v>
       </c>
@@ -26326,7 +26326,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>500</v>
       </c>
@@ -26391,7 +26391,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>500</v>
       </c>
@@ -26456,7 +26456,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>500</v>
       </c>
@@ -26521,7 +26521,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>500</v>
       </c>
@@ -26586,7 +26586,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>500</v>
       </c>
@@ -26651,7 +26651,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>500</v>
       </c>
@@ -26716,7 +26716,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>500</v>
       </c>
@@ -26781,7 +26781,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>500</v>
       </c>
@@ -26846,7 +26846,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>500</v>
       </c>
@@ -26911,7 +26911,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>500</v>
       </c>
@@ -26976,7 +26976,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>500</v>
       </c>
@@ -27041,7 +27041,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>500</v>
       </c>
@@ -27106,7 +27106,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>500</v>
       </c>
@@ -27171,7 +27171,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>500</v>
       </c>
@@ -27236,7 +27236,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>500</v>
       </c>
@@ -27301,7 +27301,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>500</v>
       </c>
@@ -27366,7 +27366,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>500</v>
       </c>
@@ -27431,7 +27431,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>500</v>
       </c>
@@ -27496,7 +27496,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>500</v>
       </c>
@@ -27561,7 +27561,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>500</v>
       </c>
@@ -27626,7 +27626,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>500</v>
       </c>
@@ -27691,7 +27691,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>500</v>
       </c>
@@ -27756,7 +27756,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>500</v>
       </c>
@@ -27821,7 +27821,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>500</v>
       </c>
@@ -27886,7 +27886,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>500</v>
       </c>
@@ -27951,7 +27951,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>500</v>
       </c>
@@ -28016,7 +28016,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>500</v>
       </c>
@@ -28081,7 +28081,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>500</v>
       </c>
@@ -28146,7 +28146,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>500</v>
       </c>
@@ -28211,7 +28211,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>500</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>500</v>
       </c>
@@ -28341,7 +28341,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>500</v>
       </c>
@@ -28406,7 +28406,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>500</v>
       </c>
@@ -28471,7 +28471,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>500</v>
       </c>
@@ -28536,7 +28536,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>500</v>
       </c>
@@ -28601,7 +28601,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>500</v>
       </c>
@@ -28666,7 +28666,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>500</v>
       </c>
@@ -28731,7 +28731,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>500</v>
       </c>
@@ -28796,7 +28796,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>500</v>
       </c>
@@ -28861,7 +28861,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>500</v>
       </c>
@@ -28926,7 +28926,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>500</v>
       </c>
@@ -28991,7 +28991,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>500</v>
       </c>
@@ -29056,7 +29056,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>500</v>
       </c>
@@ -29121,7 +29121,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>500</v>
       </c>
@@ -29186,7 +29186,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>500</v>
       </c>
@@ -29248,7 +29248,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>500</v>
       </c>
@@ -29310,7 +29310,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>500</v>
       </c>
@@ -29372,7 +29372,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>500</v>
       </c>
@@ -29434,7 +29434,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>500</v>
       </c>
@@ -29496,7 +29496,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>500</v>
       </c>
@@ -29558,7 +29558,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="385" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>500</v>
       </c>
@@ -29620,7 +29620,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="386" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>500</v>
       </c>
@@ -29682,7 +29682,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="387" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>500</v>
       </c>
@@ -29744,7 +29744,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="388" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>500</v>
       </c>
@@ -29806,7 +29806,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="389" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>500</v>
       </c>
@@ -29868,7 +29868,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="390" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>500</v>
       </c>
@@ -29930,7 +29930,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="391" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>500</v>
       </c>
@@ -29992,7 +29992,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="392" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>500</v>
       </c>
@@ -30054,7 +30054,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="393" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>500</v>
       </c>
@@ -30116,7 +30116,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="394" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>500</v>
       </c>
@@ -30178,7 +30178,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="395" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>500</v>
       </c>
@@ -30240,7 +30240,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="396" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>500</v>
       </c>
@@ -30302,7 +30302,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="397" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>500</v>
       </c>
@@ -30364,7 +30364,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="398" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>500</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="399" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>500</v>
       </c>
@@ -30488,7 +30488,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="400" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>500</v>
       </c>
@@ -30550,7 +30550,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>500</v>
       </c>
@@ -30612,7 +30612,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>500</v>
       </c>
@@ -30674,7 +30674,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>500</v>
       </c>
@@ -30736,7 +30736,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>500</v>
       </c>
@@ -30798,7 +30798,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>500</v>
       </c>
@@ -30860,7 +30860,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>500</v>
       </c>
@@ -30922,7 +30922,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>500</v>
       </c>
@@ -30984,7 +30984,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>500</v>
       </c>
@@ -31046,7 +31046,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>500</v>
       </c>
@@ -31108,7 +31108,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>500</v>
       </c>
@@ -31170,7 +31170,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>500</v>
       </c>
@@ -31232,7 +31232,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>500</v>
       </c>
@@ -31294,7 +31294,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>500</v>
       </c>
@@ -31356,7 +31356,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>500</v>
       </c>
@@ -31418,7 +31418,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>500</v>
       </c>
@@ -31480,7 +31480,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>500</v>
       </c>
@@ -31542,7 +31542,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>500</v>
       </c>
@@ -31604,7 +31604,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>500</v>
       </c>
@@ -31666,7 +31666,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>500</v>
       </c>
@@ -31728,7 +31728,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>500</v>
       </c>
@@ -31790,7 +31790,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>500</v>
       </c>
@@ -31852,7 +31852,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>551</v>
       </c>
@@ -31914,7 +31914,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>551</v>
       </c>
@@ -31976,7 +31976,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>551</v>
       </c>
@@ -32038,7 +32038,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>551</v>
       </c>
@@ -32100,7 +32100,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>551</v>
       </c>
@@ -32162,7 +32162,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>551</v>
       </c>
@@ -32224,7 +32224,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>551</v>
       </c>
@@ -32286,7 +32286,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>551</v>
       </c>
@@ -32348,7 +32348,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>551</v>
       </c>
@@ -32410,7 +32410,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>551</v>
       </c>
@@ -32472,7 +32472,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>551</v>
       </c>
@@ -32534,7 +32534,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>551</v>
       </c>
@@ -32596,7 +32596,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>551</v>
       </c>
@@ -32658,7 +32658,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>551</v>
       </c>
@@ -32720,7 +32720,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>551</v>
       </c>
@@ -32782,7 +32782,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>551</v>
       </c>
@@ -32844,7 +32844,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>551</v>
       </c>
@@ -32906,7 +32906,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>551</v>
       </c>
@@ -32968,7 +32968,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>551</v>
       </c>
@@ -33030,7 +33030,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>551</v>
       </c>
@@ -33092,7 +33092,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>551</v>
       </c>
@@ -33154,7 +33154,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>551</v>
       </c>
@@ -33216,7 +33216,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>551</v>
       </c>
@@ -33278,7 +33278,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>551</v>
       </c>
@@ -33340,7 +33340,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>587</v>
       </c>
@@ -33402,7 +33402,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>587</v>
       </c>
@@ -33464,7 +33464,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>587</v>
       </c>
@@ -33526,7 +33526,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>587</v>
       </c>
@@ -33588,7 +33588,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>587</v>
       </c>
@@ -33650,7 +33650,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>587</v>
       </c>
@@ -33712,7 +33712,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>587</v>
       </c>
@@ -33774,7 +33774,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>587</v>
       </c>
@@ -33836,7 +33836,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>587</v>
       </c>
@@ -33898,7 +33898,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>587</v>
       </c>
@@ -33960,7 +33960,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>587</v>
       </c>
@@ -34022,7 +34022,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>587</v>
       </c>
@@ -34084,7 +34084,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>587</v>
       </c>
@@ -34146,7 +34146,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>587</v>
       </c>
@@ -34208,7 +34208,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>587</v>
       </c>
@@ -34270,7 +34270,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>587</v>
       </c>
@@ -34332,7 +34332,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>587</v>
       </c>
@@ -34394,7 +34394,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>587</v>
       </c>
@@ -34456,7 +34456,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>587</v>
       </c>
@@ -34518,7 +34518,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="465" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>587</v>
       </c>
@@ -34580,7 +34580,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="466" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>587</v>
       </c>
@@ -34642,7 +34642,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="467" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>587</v>
       </c>
@@ -34704,7 +34704,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="468" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>587</v>
       </c>
@@ -34766,7 +34766,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="469" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>587</v>
       </c>
@@ -34828,7 +34828,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="470" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>587</v>
       </c>
@@ -34890,7 +34890,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="471" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>587</v>
       </c>
@@ -34952,7 +34952,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="472" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>587</v>
       </c>
@@ -35014,7 +35014,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="473" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>587</v>
       </c>
@@ -35076,7 +35076,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="474" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>587</v>
       </c>
@@ -35138,7 +35138,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="475" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>587</v>
       </c>
@@ -35200,7 +35200,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="476" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>587</v>
       </c>
@@ -35262,7 +35262,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="477" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>587</v>
       </c>
@@ -35324,7 +35324,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="478" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>587</v>
       </c>
@@ -35386,7 +35386,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="479" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>587</v>
       </c>
@@ -35448,7 +35448,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="480" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>587</v>
       </c>
@@ -35510,7 +35510,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="481" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>587</v>
       </c>
@@ -35572,7 +35572,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="482" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>587</v>
       </c>
@@ -35637,7 +35637,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="483" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>587</v>
       </c>
@@ -35702,7 +35702,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="484" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>587</v>
       </c>
@@ -35767,7 +35767,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="485" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>659</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="486" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>659</v>
       </c>
@@ -35891,7 +35891,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="487" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>659</v>
       </c>
@@ -35953,7 +35953,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="488" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>659</v>
       </c>
@@ -36015,7 +36015,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="489" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
         <v>670</v>
       </c>
@@ -36090,7 +36090,7 @@
       <c r="AG489" s="2"/>
       <c r="AH489" s="2"/>
     </row>
-    <row r="490" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
         <v>670</v>
       </c>
@@ -36165,7 +36165,7 @@
       <c r="AG490" s="2"/>
       <c r="AH490" s="2"/>
     </row>
-    <row r="491" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>670</v>
       </c>
@@ -36240,7 +36240,7 @@
       <c r="AG491" s="2"/>
       <c r="AH491" s="2"/>
     </row>
-    <row r="492" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>670</v>
       </c>
@@ -36315,7 +36315,7 @@
       <c r="AG492" s="2"/>
       <c r="AH492" s="2"/>
     </row>
-    <row r="493" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>670</v>
       </c>
@@ -36390,7 +36390,7 @@
       <c r="AG493" s="2"/>
       <c r="AH493" s="2"/>
     </row>
-    <row r="494" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
         <v>670</v>
       </c>
@@ -36465,7 +36465,7 @@
       <c r="AG494" s="2"/>
       <c r="AH494" s="2"/>
     </row>
-    <row r="495" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
         <v>670</v>
       </c>
@@ -36540,7 +36540,7 @@
       <c r="AG495" s="2"/>
       <c r="AH495" s="2"/>
     </row>
-    <row r="496" spans="1:34" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>687</v>
       </c>
@@ -36602,7 +36602,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="497" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>687</v>
       </c>
@@ -36664,7 +36664,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="498" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>687</v>
       </c>
@@ -36726,7 +36726,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="499" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>687</v>
       </c>
@@ -36788,7 +36788,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="500" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>687</v>
       </c>
@@ -36850,7 +36850,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="501" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>687</v>
       </c>
@@ -36912,7 +36912,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="502" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>687</v>
       </c>
@@ -36974,7 +36974,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="503" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>687</v>
       </c>
@@ -37036,7 +37036,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="504" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>687</v>
       </c>
@@ -37098,7 +37098,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="505" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>687</v>
       </c>
@@ -37160,7 +37160,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="506" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>687</v>
       </c>
@@ -37222,7 +37222,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="507" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>687</v>
       </c>
@@ -37284,7 +37284,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="508" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>687</v>
       </c>
@@ -37346,7 +37346,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="509" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>687</v>
       </c>
@@ -37408,7 +37408,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="510" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>687</v>
       </c>
@@ -37470,7 +37470,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="511" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>687</v>
       </c>
@@ -37532,7 +37532,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="512" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>687</v>
       </c>
@@ -37594,7 +37594,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="513" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>687</v>
       </c>
@@ -37656,7 +37656,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="514" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>687</v>
       </c>
@@ -37718,7 +37718,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="515" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>687</v>
       </c>
@@ -37780,7 +37780,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="516" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>687</v>
       </c>
@@ -37842,7 +37842,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="517" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>687</v>
       </c>
@@ -37904,7 +37904,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="518" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>687</v>
       </c>
@@ -37966,7 +37966,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="519" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>687</v>
       </c>
@@ -38028,7 +38028,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="520" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>687</v>
       </c>
@@ -38090,7 +38090,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="521" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>687</v>
       </c>
@@ -38152,7 +38152,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="522" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>687</v>
       </c>
@@ -38214,7 +38214,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="523" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>687</v>
       </c>
@@ -38276,7 +38276,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="524" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>687</v>
       </c>
@@ -38338,7 +38338,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="525" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>687</v>
       </c>
@@ -38400,7 +38400,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="526" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>687</v>
       </c>
@@ -38462,7 +38462,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="527" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>687</v>
       </c>
@@ -38524,7 +38524,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="528" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>687</v>
       </c>
@@ -38586,7 +38586,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="529" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>687</v>
       </c>
@@ -38648,7 +38648,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="530" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>687</v>
       </c>
@@ -38710,7 +38710,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="531" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>687</v>
       </c>
@@ -38772,7 +38772,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="532" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>687</v>
       </c>
@@ -38834,7 +38834,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="533" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>687</v>
       </c>
@@ -38896,7 +38896,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="534" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>687</v>
       </c>
@@ -38958,7 +38958,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="535" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>687</v>
       </c>
@@ -39020,7 +39020,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="536" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>687</v>
       </c>
@@ -39082,7 +39082,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="537" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>687</v>
       </c>
@@ -39144,7 +39144,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="538" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>687</v>
       </c>
@@ -39206,7 +39206,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="539" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>687</v>
       </c>
@@ -39268,7 +39268,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="540" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>687</v>
       </c>
@@ -39330,7 +39330,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="541" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>687</v>
       </c>
@@ -39392,7 +39392,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="542" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>687</v>
       </c>
@@ -39454,7 +39454,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="543" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>687</v>
       </c>
@@ -39516,7 +39516,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="544" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>718</v>
       </c>
@@ -39578,7 +39578,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="545" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>718</v>
       </c>
@@ -39640,7 +39640,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="546" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>718</v>
       </c>
@@ -39702,7 +39702,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="547" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>725</v>
       </c>
@@ -39710,7 +39710,7 @@
         <v>829</v>
       </c>
       <c r="C547" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D547" t="s">
         <v>862</v>
@@ -39758,7 +39758,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="548" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>725</v>
       </c>
@@ -39766,7 +39766,7 @@
         <v>829</v>
       </c>
       <c r="C548" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D548" t="s">
         <v>862</v>
@@ -39814,7 +39814,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="549" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>725</v>
       </c>
@@ -39822,7 +39822,7 @@
         <v>829</v>
       </c>
       <c r="C549" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D549" t="s">
         <v>862</v>
@@ -39870,17 +39870,17 @@
         <v>729</v>
       </c>
     </row>
-    <row r="550" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:21" x14ac:dyDescent="0.35">
       <c r="F550" s="5"/>
       <c r="G550" s="5"/>
       <c r="L550" s="3"/>
     </row>
-    <row r="551" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.35">
       <c r="F551" s="5"/>
       <c r="G551" s="5"/>
       <c r="L551" s="3"/>
     </row>
-    <row r="552" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:21" x14ac:dyDescent="0.35">
       <c r="F552" s="5"/>
       <c r="G552" s="5"/>
       <c r="L552" s="3"/>
